--- a/flows/PFIX_fund_flow_data.xlsx
+++ b/flows/PFIX_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B708"/>
+  <dimension ref="A1:B721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7515,6 +7515,136 @@
         <v>1.197225</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
